--- a/GenerateZaFoms/Template/ZaSk.xlsx
+++ b/GenerateZaFoms/Template/ZaSk.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="191">
   <si>
     <t xml:space="preserve">В </t>
   </si>
@@ -1104,20 +1104,6 @@
   </si>
   <si>
     <r>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Отказаться от СМС-информирования (в т.ч. через приложение-мессенджер) Вы можете на ___________________.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>*</t>
     </r>
     <r>
@@ -1184,7 +1170,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>13</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1201,7 +1187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1320,6 +1306,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="7.5"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1370,7 +1363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1518,37 +1511,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1560,11 +1538,35 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1987,88 +1989,88 @@
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:24" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
     </row>
     <row r="7" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
     </row>
     <row r="8" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="41"/>
@@ -2237,59 +2239,59 @@
     </row>
     <row r="14" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
     </row>
     <row r="15" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
     </row>
     <row r="16" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
@@ -2484,7 +2486,7 @@
     </row>
     <row r="23" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="51"/>
@@ -2504,7 +2506,7 @@
     </row>
     <row r="24" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="32"/>
@@ -2524,7 +2526,7 @@
     </row>
     <row r="25" spans="1:24" s="53" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="55"/>
@@ -2543,60 +2545,60 @@
       <c r="X25" s="56"/>
     </row>
     <row r="26" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="74"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="74"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
@@ -2783,60 +2785,60 @@
       <c r="X33" s="6"/>
     </row>
     <row r="34" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="N34" s="71" t="s">
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="N34" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="84"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="84"/>
+      <c r="X34" s="84"/>
     </row>
     <row r="35" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="N35" s="71" t="s">
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="N35" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="71"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
+      <c r="U35" s="84"/>
+      <c r="V35" s="84"/>
+      <c r="W35" s="84"/>
+      <c r="X35" s="84"/>
     </row>
     <row r="36" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
@@ -2868,144 +2870,144 @@
       <c r="X36" s="6"/>
     </row>
     <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="N37" s="71" t="s">
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="N37" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="71"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
+      <c r="R37" s="84"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="84"/>
+      <c r="U37" s="84"/>
+      <c r="V37" s="84"/>
+      <c r="W37" s="84"/>
+      <c r="X37" s="84"/>
     </row>
     <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="N38" s="71" t="s">
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
+      <c r="N38" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="71"/>
-      <c r="X38" s="71"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="84"/>
+      <c r="R38" s="84"/>
+      <c r="S38" s="84"/>
+      <c r="T38" s="84"/>
+      <c r="U38" s="84"/>
+      <c r="V38" s="84"/>
+      <c r="W38" s="84"/>
+      <c r="X38" s="84"/>
     </row>
     <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="N39" s="71" t="s">
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="N39" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="71"/>
-      <c r="V39" s="71"/>
-      <c r="W39" s="71"/>
-      <c r="X39" s="71"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="84"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="84"/>
+      <c r="U39" s="84"/>
+      <c r="V39" s="84"/>
+      <c r="W39" s="84"/>
+      <c r="X39" s="84"/>
     </row>
     <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="N40" s="71" t="s">
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="N40" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="71"/>
-      <c r="V40" s="71"/>
-      <c r="W40" s="71"/>
-      <c r="X40" s="71"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="84"/>
+      <c r="R40" s="84"/>
+      <c r="S40" s="84"/>
+      <c r="T40" s="84"/>
+      <c r="U40" s="84"/>
+      <c r="V40" s="84"/>
+      <c r="W40" s="84"/>
+      <c r="X40" s="84"/>
     </row>
     <row r="41" spans="1:24" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77"/>
-      <c r="P41" s="77"/>
-      <c r="Q41" s="77"/>
-      <c r="R41" s="77"/>
-      <c r="S41" s="77"/>
-      <c r="T41" s="77"/>
-      <c r="U41" s="77"/>
-      <c r="V41" s="77"/>
-      <c r="W41" s="77"/>
-      <c r="X41" s="77"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="89"/>
+      <c r="V41" s="89"/>
+      <c r="W41" s="89"/>
+      <c r="X41" s="89"/>
     </row>
     <row r="42" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
@@ -3054,19 +3056,19 @@
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
-      <c r="Q43" s="79"/>
-      <c r="R43" s="79"/>
-      <c r="S43" s="79"/>
-      <c r="T43" s="79"/>
-      <c r="U43" s="79"/>
-      <c r="V43" s="79"/>
-      <c r="W43" s="79"/>
-      <c r="X43" s="79"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="83"/>
+      <c r="Q43" s="83"/>
+      <c r="R43" s="83"/>
+      <c r="S43" s="83"/>
+      <c r="T43" s="83"/>
+      <c r="U43" s="83"/>
+      <c r="V43" s="83"/>
+      <c r="W43" s="83"/>
+      <c r="X43" s="83"/>
     </row>
     <row r="44" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
@@ -3101,27 +3103,27 @@
       <c r="A45" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
-      <c r="Q45" s="80"/>
-      <c r="R45" s="80"/>
-      <c r="S45" s="80"/>
-      <c r="T45" s="80"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
       <c r="U45" s="14"/>
       <c r="V45" s="14"/>
       <c r="W45" s="14"/>
@@ -3190,27 +3192,27 @@
       <c r="B48" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
-      <c r="Q48" s="79"/>
-      <c r="R48" s="79"/>
-      <c r="S48" s="79"/>
-      <c r="T48" s="79"/>
-      <c r="U48" s="79"/>
-      <c r="V48" s="79"/>
-      <c r="W48" s="79"/>
-      <c r="X48" s="79"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="81"/>
+      <c r="S48" s="81"/>
+      <c r="T48" s="81"/>
+      <c r="U48" s="81"/>
+      <c r="V48" s="81"/>
+      <c r="W48" s="81"/>
+      <c r="X48" s="81"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
@@ -3381,14 +3383,14 @@
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="78"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
       <c r="N56" s="15" t="s">
         <v>63</v>
       </c>
@@ -3565,14 +3567,14 @@
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="21"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="78"/>
-      <c r="M65" s="78"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="74"/>
+      <c r="M65" s="74"/>
       <c r="N65" s="15" t="s">
         <v>63</v>
       </c>
@@ -3697,77 +3699,77 @@
         <v>77</v>
       </c>
       <c r="E71" s="22"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="75"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="75"/>
-      <c r="K71" s="75"/>
-      <c r="L71" s="75"/>
-      <c r="M71" s="75"/>
-      <c r="N71" s="75"/>
-      <c r="O71" s="75"/>
-      <c r="P71" s="75"/>
-      <c r="Q71" s="75"/>
-      <c r="R71" s="75"/>
-      <c r="S71" s="75"/>
-      <c r="T71" s="75"/>
-      <c r="U71" s="75"/>
-      <c r="V71" s="75"/>
-      <c r="W71" s="75"/>
-      <c r="X71" s="75"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="80"/>
+      <c r="J71" s="80"/>
+      <c r="K71" s="80"/>
+      <c r="L71" s="80"/>
+      <c r="M71" s="80"/>
+      <c r="N71" s="80"/>
+      <c r="O71" s="80"/>
+      <c r="P71" s="80"/>
+      <c r="Q71" s="80"/>
+      <c r="R71" s="80"/>
+      <c r="S71" s="80"/>
+      <c r="T71" s="80"/>
+      <c r="U71" s="80"/>
+      <c r="V71" s="80"/>
+      <c r="W71" s="80"/>
+      <c r="X71" s="80"/>
     </row>
     <row r="72" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E72" s="22"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="78"/>
-      <c r="H72" s="78"/>
-      <c r="I72" s="78"/>
-      <c r="J72" s="78"/>
-      <c r="K72" s="78"/>
-      <c r="L72" s="78"/>
-      <c r="M72" s="78"/>
-      <c r="N72" s="78"/>
-      <c r="O72" s="78"/>
-      <c r="P72" s="78"/>
-      <c r="Q72" s="78"/>
-      <c r="R72" s="78"/>
-      <c r="S72" s="78"/>
-      <c r="T72" s="78"/>
-      <c r="U72" s="78"/>
-      <c r="V72" s="78"/>
-      <c r="W72" s="78"/>
-      <c r="X72" s="78"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="74"/>
+      <c r="M72" s="74"/>
+      <c r="N72" s="74"/>
+      <c r="O72" s="74"/>
+      <c r="P72" s="74"/>
+      <c r="Q72" s="74"/>
+      <c r="R72" s="74"/>
+      <c r="S72" s="74"/>
+      <c r="T72" s="74"/>
+      <c r="U72" s="74"/>
+      <c r="V72" s="74"/>
+      <c r="W72" s="74"/>
+      <c r="X72" s="74"/>
     </row>
     <row r="73" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="71" t="s">
+      <c r="B73" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="71"/>
-      <c r="L73" s="71"/>
-      <c r="M73" s="71"/>
-      <c r="N73" s="71"/>
-      <c r="O73" s="71"/>
-      <c r="P73" s="71"/>
-      <c r="Q73" s="71"/>
-      <c r="R73" s="71"/>
-      <c r="S73" s="71"/>
-      <c r="T73" s="71"/>
-      <c r="U73" s="71"/>
-      <c r="V73" s="71"/>
-      <c r="W73" s="71"/>
-      <c r="X73" s="71"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="84"/>
+      <c r="I73" s="84"/>
+      <c r="J73" s="84"/>
+      <c r="K73" s="84"/>
+      <c r="L73" s="84"/>
+      <c r="M73" s="84"/>
+      <c r="N73" s="84"/>
+      <c r="O73" s="84"/>
+      <c r="P73" s="84"/>
+      <c r="Q73" s="84"/>
+      <c r="R73" s="84"/>
+      <c r="S73" s="84"/>
+      <c r="T73" s="84"/>
+      <c r="U73" s="84"/>
+      <c r="V73" s="84"/>
+      <c r="W73" s="84"/>
+      <c r="X73" s="84"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="24"/>
@@ -3920,34 +3922,34 @@
       <c r="X78" s="24"/>
     </row>
     <row r="79" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="B79" s="71" t="s">
+      <c r="B79" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="71"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="71"/>
-      <c r="N79" s="71"/>
-      <c r="O79" s="71"/>
-      <c r="P79" s="71"/>
-      <c r="Q79" s="71"/>
-      <c r="R79" s="71"/>
-      <c r="S79" s="71"/>
-      <c r="T79" s="71"/>
-      <c r="U79" s="71"/>
-      <c r="V79" s="71"/>
-      <c r="W79" s="71"/>
-      <c r="X79" s="71"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="84"/>
+      <c r="I79" s="84"/>
+      <c r="J79" s="84"/>
+      <c r="K79" s="84"/>
+      <c r="L79" s="84"/>
+      <c r="M79" s="84"/>
+      <c r="N79" s="84"/>
+      <c r="O79" s="84"/>
+      <c r="P79" s="84"/>
+      <c r="Q79" s="84"/>
+      <c r="R79" s="84"/>
+      <c r="S79" s="84"/>
+      <c r="T79" s="84"/>
+      <c r="U79" s="84"/>
+      <c r="V79" s="84"/>
+      <c r="W79" s="84"/>
+      <c r="X79" s="84"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B80" s="13" t="s">
@@ -3971,60 +3973,60 @@
       <c r="S80" s="42"/>
     </row>
     <row r="81" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="B81" s="76" t="s">
+      <c r="B81" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="C81" s="76"/>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="76"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="76"/>
-      <c r="K81" s="76"/>
-      <c r="L81" s="76"/>
-      <c r="M81" s="76"/>
-      <c r="N81" s="76"/>
-      <c r="O81" s="76"/>
-      <c r="P81" s="76"/>
-      <c r="Q81" s="76"/>
-      <c r="R81" s="76"/>
-      <c r="S81" s="76"/>
-      <c r="T81" s="76"/>
-      <c r="U81" s="76"/>
-      <c r="V81" s="76"/>
-      <c r="W81" s="76"/>
-      <c r="X81" s="76"/>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C81" s="88"/>
+      <c r="D81" s="88"/>
+      <c r="E81" s="88"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="88"/>
+      <c r="H81" s="88"/>
+      <c r="I81" s="88"/>
+      <c r="J81" s="88"/>
+      <c r="K81" s="88"/>
+      <c r="L81" s="88"/>
+      <c r="M81" s="88"/>
+      <c r="N81" s="88"/>
+      <c r="O81" s="88"/>
+      <c r="P81" s="88"/>
+      <c r="Q81" s="88"/>
+      <c r="R81" s="88"/>
+      <c r="S81" s="88"/>
+      <c r="T81" s="88"/>
+      <c r="U81" s="88"/>
+      <c r="V81" s="88"/>
+      <c r="W81" s="88"/>
+      <c r="X81" s="88"/>
+    </row>
+    <row r="82" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="28"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="49"/>
-      <c r="N82" s="49"/>
-      <c r="O82" s="49"/>
-      <c r="P82" s="49"/>
-      <c r="Q82" s="49"/>
-      <c r="R82" s="49"/>
-      <c r="S82" s="49"/>
-      <c r="T82" s="49"/>
-      <c r="U82" s="49"/>
-      <c r="V82" s="49"/>
-      <c r="W82" s="49"/>
-      <c r="X82" s="49"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="85"/>
+      <c r="M82" s="85"/>
+      <c r="N82" s="85"/>
+      <c r="O82" s="85"/>
+      <c r="P82" s="85"/>
+      <c r="Q82" s="85"/>
+      <c r="R82" s="85"/>
+      <c r="S82" s="85"/>
+      <c r="T82" s="85"/>
+      <c r="U82" s="85"/>
+      <c r="V82" s="85"/>
+      <c r="W82" s="85"/>
+      <c r="X82" s="85"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="27" t="s">
@@ -4058,29 +4060,29 @@
     </row>
     <row r="84" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="28"/>
-      <c r="B84" s="83"/>
-      <c r="C84" s="83"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="83"/>
-      <c r="H84" s="83"/>
-      <c r="I84" s="83"/>
-      <c r="J84" s="83"/>
-      <c r="K84" s="83"/>
-      <c r="L84" s="83"/>
-      <c r="M84" s="83"/>
-      <c r="N84" s="83"/>
-      <c r="O84" s="83"/>
-      <c r="P84" s="83"/>
-      <c r="Q84" s="83"/>
-      <c r="R84" s="83"/>
-      <c r="S84" s="83"/>
-      <c r="T84" s="83"/>
-      <c r="U84" s="83"/>
-      <c r="V84" s="83"/>
-      <c r="W84" s="83"/>
-      <c r="X84" s="83"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="78"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="78"/>
+      <c r="H84" s="78"/>
+      <c r="I84" s="78"/>
+      <c r="J84" s="78"/>
+      <c r="K84" s="78"/>
+      <c r="L84" s="78"/>
+      <c r="M84" s="78"/>
+      <c r="N84" s="78"/>
+      <c r="O84" s="78"/>
+      <c r="P84" s="78"/>
+      <c r="Q84" s="78"/>
+      <c r="R84" s="78"/>
+      <c r="S84" s="78"/>
+      <c r="T84" s="78"/>
+      <c r="U84" s="78"/>
+      <c r="V84" s="78"/>
+      <c r="W84" s="78"/>
+      <c r="X84" s="78"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="28"/>
@@ -4325,19 +4327,19 @@
     </row>
     <row r="93" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="28"/>
-      <c r="B93" s="84" t="s">
+      <c r="B93" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="C93" s="84"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="84"/>
-      <c r="H93" s="84"/>
-      <c r="I93" s="84"/>
-      <c r="J93" s="84"/>
-      <c r="K93" s="84"/>
-      <c r="L93" s="84"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="79"/>
+      <c r="G93" s="79"/>
+      <c r="H93" s="79"/>
+      <c r="I93" s="79"/>
+      <c r="J93" s="79"/>
+      <c r="K93" s="79"/>
+      <c r="L93" s="79"/>
       <c r="M93" s="28"/>
       <c r="N93" s="28"/>
       <c r="O93" s="29" t="s">
@@ -4380,32 +4382,32 @@
       <c r="X94" s="28"/>
     </row>
     <row r="95" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="74" t="s">
+      <c r="A95" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="B95" s="74"/>
-      <c r="C95" s="74"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="74"/>
-      <c r="H95" s="74"/>
-      <c r="I95" s="74"/>
-      <c r="J95" s="74"/>
-      <c r="K95" s="74"/>
-      <c r="L95" s="74"/>
-      <c r="M95" s="74"/>
-      <c r="N95" s="74"/>
-      <c r="O95" s="74"/>
-      <c r="P95" s="74"/>
-      <c r="Q95" s="74"/>
-      <c r="R95" s="74"/>
-      <c r="S95" s="74"/>
-      <c r="T95" s="74"/>
-      <c r="U95" s="74"/>
-      <c r="V95" s="74"/>
-      <c r="W95" s="74"/>
-      <c r="X95" s="74"/>
+      <c r="B95" s="75"/>
+      <c r="C95" s="75"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="75"/>
+      <c r="F95" s="75"/>
+      <c r="G95" s="75"/>
+      <c r="H95" s="75"/>
+      <c r="I95" s="75"/>
+      <c r="J95" s="75"/>
+      <c r="K95" s="75"/>
+      <c r="L95" s="75"/>
+      <c r="M95" s="75"/>
+      <c r="N95" s="75"/>
+      <c r="O95" s="75"/>
+      <c r="P95" s="75"/>
+      <c r="Q95" s="75"/>
+      <c r="R95" s="75"/>
+      <c r="S95" s="75"/>
+      <c r="T95" s="75"/>
+      <c r="U95" s="75"/>
+      <c r="V95" s="75"/>
+      <c r="W95" s="75"/>
+      <c r="X95" s="75"/>
     </row>
     <row r="96" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
@@ -4636,18 +4638,18 @@
       <c r="A104" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B104" s="84" t="s">
+      <c r="B104" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="C104" s="84"/>
-      <c r="D104" s="84"/>
-      <c r="E104" s="84"/>
-      <c r="F104" s="84"/>
-      <c r="G104" s="84"/>
-      <c r="H104" s="84"/>
-      <c r="I104" s="84"/>
-      <c r="J104" s="84"/>
-      <c r="K104" s="84"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="79"/>
+      <c r="H104" s="79"/>
+      <c r="I104" s="79"/>
+      <c r="J104" s="79"/>
+      <c r="K104" s="79"/>
       <c r="L104" s="28"/>
       <c r="M104" s="28"/>
       <c r="N104" s="28" t="s">
@@ -4668,16 +4670,16 @@
     </row>
     <row r="105" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="28"/>
-      <c r="B105" s="84"/>
-      <c r="C105" s="84"/>
-      <c r="D105" s="84"/>
-      <c r="E105" s="84"/>
-      <c r="F105" s="84"/>
-      <c r="G105" s="84"/>
-      <c r="H105" s="84"/>
-      <c r="I105" s="84"/>
-      <c r="J105" s="84"/>
-      <c r="K105" s="84"/>
+      <c r="B105" s="79"/>
+      <c r="C105" s="79"/>
+      <c r="D105" s="79"/>
+      <c r="E105" s="79"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="79"/>
+      <c r="H105" s="79"/>
+      <c r="I105" s="79"/>
+      <c r="J105" s="79"/>
+      <c r="K105" s="79"/>
       <c r="L105" s="28"/>
       <c r="M105" s="28"/>
       <c r="N105" s="28" t="s">
@@ -4698,31 +4700,31 @@
       <c r="A106" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B106" s="81" t="s">
+      <c r="B106" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="C106" s="81"/>
-      <c r="D106" s="81"/>
-      <c r="E106" s="81"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81"/>
-      <c r="H106" s="81"/>
-      <c r="I106" s="81"/>
-      <c r="J106" s="81"/>
-      <c r="K106" s="81"/>
-      <c r="L106" s="81"/>
-      <c r="M106" s="81"/>
-      <c r="N106" s="81"/>
-      <c r="O106" s="81"/>
-      <c r="P106" s="81"/>
-      <c r="Q106" s="81"/>
-      <c r="R106" s="81"/>
-      <c r="S106" s="82"/>
-      <c r="T106" s="82"/>
-      <c r="U106" s="82"/>
-      <c r="V106" s="82"/>
-      <c r="W106" s="82"/>
-      <c r="X106" s="82"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="76"/>
+      <c r="I106" s="76"/>
+      <c r="J106" s="76"/>
+      <c r="K106" s="76"/>
+      <c r="L106" s="76"/>
+      <c r="M106" s="76"/>
+      <c r="N106" s="76"/>
+      <c r="O106" s="76"/>
+      <c r="P106" s="76"/>
+      <c r="Q106" s="76"/>
+      <c r="R106" s="76"/>
+      <c r="S106" s="77"/>
+      <c r="T106" s="77"/>
+      <c r="U106" s="77"/>
+      <c r="V106" s="77"/>
+      <c r="W106" s="77"/>
+      <c r="X106" s="77"/>
     </row>
     <row r="107" spans="1:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="23"/>
@@ -4785,27 +4787,27 @@
       <c r="B109" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D109" s="78"/>
-      <c r="E109" s="78"/>
-      <c r="F109" s="78"/>
-      <c r="G109" s="78"/>
-      <c r="H109" s="78"/>
-      <c r="I109" s="78"/>
-      <c r="J109" s="78"/>
-      <c r="K109" s="78"/>
-      <c r="L109" s="78"/>
-      <c r="M109" s="78"/>
-      <c r="N109" s="78"/>
-      <c r="O109" s="78"/>
-      <c r="P109" s="78"/>
-      <c r="Q109" s="78"/>
-      <c r="R109" s="78"/>
-      <c r="S109" s="78"/>
-      <c r="T109" s="78"/>
-      <c r="U109" s="78"/>
-      <c r="V109" s="78"/>
-      <c r="W109" s="78"/>
-      <c r="X109" s="78"/>
+      <c r="D109" s="74"/>
+      <c r="E109" s="74"/>
+      <c r="F109" s="74"/>
+      <c r="G109" s="74"/>
+      <c r="H109" s="74"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="74"/>
+      <c r="K109" s="74"/>
+      <c r="L109" s="74"/>
+      <c r="M109" s="74"/>
+      <c r="N109" s="74"/>
+      <c r="O109" s="74"/>
+      <c r="P109" s="74"/>
+      <c r="Q109" s="74"/>
+      <c r="R109" s="74"/>
+      <c r="S109" s="74"/>
+      <c r="T109" s="74"/>
+      <c r="U109" s="74"/>
+      <c r="V109" s="74"/>
+      <c r="W109" s="74"/>
+      <c r="X109" s="74"/>
     </row>
     <row r="110" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
@@ -5017,14 +5019,14 @@
       <c r="C118" s="19"/>
       <c r="D118" s="19"/>
       <c r="E118" s="21"/>
-      <c r="F118" s="78"/>
-      <c r="G118" s="78"/>
-      <c r="H118" s="78"/>
-      <c r="I118" s="78"/>
-      <c r="J118" s="78"/>
-      <c r="K118" s="78"/>
-      <c r="L118" s="78"/>
-      <c r="M118" s="78"/>
+      <c r="F118" s="74"/>
+      <c r="G118" s="74"/>
+      <c r="H118" s="74"/>
+      <c r="I118" s="74"/>
+      <c r="J118" s="74"/>
+      <c r="K118" s="74"/>
+      <c r="L118" s="74"/>
+      <c r="M118" s="74"/>
       <c r="N118" s="15" t="s">
         <v>63</v>
       </c>
@@ -5211,14 +5213,14 @@
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
       <c r="E127" s="21"/>
-      <c r="F127" s="78"/>
-      <c r="G127" s="78"/>
-      <c r="H127" s="78"/>
-      <c r="I127" s="78"/>
-      <c r="J127" s="78"/>
-      <c r="K127" s="78"/>
-      <c r="L127" s="78"/>
-      <c r="M127" s="78"/>
+      <c r="F127" s="74"/>
+      <c r="G127" s="74"/>
+      <c r="H127" s="74"/>
+      <c r="I127" s="74"/>
+      <c r="J127" s="74"/>
+      <c r="K127" s="74"/>
+      <c r="L127" s="74"/>
+      <c r="M127" s="74"/>
       <c r="N127" s="15" t="s">
         <v>63</v>
       </c>
@@ -5383,32 +5385,32 @@
       <c r="X132" s="28"/>
     </row>
     <row r="133" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="74" t="s">
+      <c r="A133" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="B133" s="74"/>
-      <c r="C133" s="74"/>
-      <c r="D133" s="74"/>
-      <c r="E133" s="74"/>
-      <c r="F133" s="74"/>
-      <c r="G133" s="74"/>
-      <c r="H133" s="74"/>
-      <c r="I133" s="74"/>
-      <c r="J133" s="74"/>
-      <c r="K133" s="74"/>
-      <c r="L133" s="74"/>
-      <c r="M133" s="74"/>
-      <c r="N133" s="74"/>
-      <c r="O133" s="74"/>
-      <c r="P133" s="74"/>
-      <c r="Q133" s="74"/>
-      <c r="R133" s="74"/>
-      <c r="S133" s="74"/>
-      <c r="T133" s="74"/>
-      <c r="U133" s="74"/>
-      <c r="V133" s="74"/>
-      <c r="W133" s="74"/>
-      <c r="X133" s="74"/>
+      <c r="B133" s="75"/>
+      <c r="C133" s="75"/>
+      <c r="D133" s="75"/>
+      <c r="E133" s="75"/>
+      <c r="F133" s="75"/>
+      <c r="G133" s="75"/>
+      <c r="H133" s="75"/>
+      <c r="I133" s="75"/>
+      <c r="J133" s="75"/>
+      <c r="K133" s="75"/>
+      <c r="L133" s="75"/>
+      <c r="M133" s="75"/>
+      <c r="N133" s="75"/>
+      <c r="O133" s="75"/>
+      <c r="P133" s="75"/>
+      <c r="Q133" s="75"/>
+      <c r="R133" s="75"/>
+      <c r="S133" s="75"/>
+      <c r="T133" s="75"/>
+      <c r="U133" s="75"/>
+      <c r="V133" s="75"/>
+      <c r="W133" s="75"/>
+      <c r="X133" s="75"/>
     </row>
     <row r="134" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="49"/>
@@ -5554,31 +5556,31 @@
     </row>
     <row r="139" spans="1:24" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="28"/>
-      <c r="B139" s="86" t="s">
-        <v>191</v>
-      </c>
-      <c r="C139" s="86"/>
-      <c r="D139" s="86"/>
-      <c r="E139" s="86"/>
-      <c r="F139" s="86"/>
-      <c r="G139" s="86"/>
-      <c r="H139" s="86"/>
-      <c r="I139" s="86"/>
-      <c r="J139" s="86"/>
-      <c r="K139" s="86"/>
-      <c r="L139" s="86"/>
-      <c r="M139" s="86"/>
-      <c r="N139" s="86"/>
-      <c r="O139" s="86"/>
-      <c r="P139" s="86"/>
-      <c r="Q139" s="86"/>
-      <c r="R139" s="86"/>
-      <c r="S139" s="86"/>
-      <c r="T139" s="86"/>
-      <c r="U139" s="86"/>
-      <c r="V139" s="86"/>
-      <c r="W139" s="86"/>
-      <c r="X139" s="86"/>
+      <c r="B139" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="C139" s="73"/>
+      <c r="D139" s="73"/>
+      <c r="E139" s="73"/>
+      <c r="F139" s="73"/>
+      <c r="G139" s="73"/>
+      <c r="H139" s="73"/>
+      <c r="I139" s="73"/>
+      <c r="J139" s="73"/>
+      <c r="K139" s="73"/>
+      <c r="L139" s="73"/>
+      <c r="M139" s="73"/>
+      <c r="N139" s="73"/>
+      <c r="O139" s="73"/>
+      <c r="P139" s="73"/>
+      <c r="Q139" s="73"/>
+      <c r="R139" s="73"/>
+      <c r="S139" s="73"/>
+      <c r="T139" s="73"/>
+      <c r="U139" s="73"/>
+      <c r="V139" s="73"/>
+      <c r="W139" s="73"/>
+      <c r="X139" s="73"/>
     </row>
     <row r="140" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="28"/>
@@ -5637,31 +5639,31 @@
     </row>
     <row r="142" spans="1:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="28"/>
-      <c r="B142" s="86" t="s">
+      <c r="B142" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="C142" s="86"/>
-      <c r="D142" s="86"/>
-      <c r="E142" s="86"/>
-      <c r="F142" s="86"/>
-      <c r="G142" s="86"/>
-      <c r="H142" s="86"/>
-      <c r="I142" s="86"/>
-      <c r="J142" s="86"/>
-      <c r="K142" s="86"/>
-      <c r="L142" s="86"/>
-      <c r="M142" s="86"/>
-      <c r="N142" s="86"/>
-      <c r="O142" s="86"/>
-      <c r="P142" s="86"/>
-      <c r="Q142" s="86"/>
-      <c r="R142" s="86"/>
-      <c r="S142" s="86"/>
-      <c r="T142" s="86"/>
-      <c r="U142" s="86"/>
-      <c r="V142" s="86"/>
-      <c r="W142" s="86"/>
-      <c r="X142" s="86"/>
+      <c r="C142" s="73"/>
+      <c r="D142" s="73"/>
+      <c r="E142" s="73"/>
+      <c r="F142" s="73"/>
+      <c r="G142" s="73"/>
+      <c r="H142" s="73"/>
+      <c r="I142" s="73"/>
+      <c r="J142" s="73"/>
+      <c r="K142" s="73"/>
+      <c r="L142" s="73"/>
+      <c r="M142" s="73"/>
+      <c r="N142" s="73"/>
+      <c r="O142" s="73"/>
+      <c r="P142" s="73"/>
+      <c r="Q142" s="73"/>
+      <c r="R142" s="73"/>
+      <c r="S142" s="73"/>
+      <c r="T142" s="73"/>
+      <c r="U142" s="73"/>
+      <c r="V142" s="73"/>
+      <c r="W142" s="73"/>
+      <c r="X142" s="73"/>
     </row>
     <row r="143" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="28"/>
@@ -5807,20 +5809,20 @@
       <c r="H148" s="28"/>
       <c r="I148" s="28"/>
       <c r="J148" s="28"/>
-      <c r="M148" s="85" t="s">
+      <c r="M148" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="N148" s="85"/>
-      <c r="O148" s="85"/>
-      <c r="P148" s="85"/>
-      <c r="Q148" s="85"/>
-      <c r="R148" s="85"/>
-      <c r="S148" s="85"/>
-      <c r="T148" s="85"/>
-      <c r="U148" s="85"/>
-      <c r="V148" s="85"/>
-      <c r="W148" s="85"/>
-      <c r="X148" s="85"/>
+      <c r="N148" s="72"/>
+      <c r="O148" s="72"/>
+      <c r="P148" s="72"/>
+      <c r="Q148" s="72"/>
+      <c r="R148" s="72"/>
+      <c r="S148" s="72"/>
+      <c r="T148" s="72"/>
+      <c r="U148" s="72"/>
+      <c r="V148" s="72"/>
+      <c r="W148" s="72"/>
+      <c r="X148" s="72"/>
     </row>
     <row r="149" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="66" t="s">
@@ -5859,20 +5861,20 @@
       <c r="H150" s="28"/>
       <c r="I150" s="28"/>
       <c r="J150" s="28"/>
-      <c r="M150" s="85" t="s">
+      <c r="M150" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="N150" s="85"/>
-      <c r="O150" s="85"/>
-      <c r="P150" s="85"/>
-      <c r="Q150" s="85"/>
-      <c r="R150" s="85"/>
-      <c r="S150" s="85"/>
-      <c r="T150" s="85"/>
-      <c r="U150" s="85"/>
-      <c r="V150" s="85"/>
-      <c r="W150" s="85"/>
-      <c r="X150" s="85"/>
+      <c r="N150" s="72"/>
+      <c r="O150" s="72"/>
+      <c r="P150" s="72"/>
+      <c r="Q150" s="72"/>
+      <c r="R150" s="72"/>
+      <c r="S150" s="72"/>
+      <c r="T150" s="72"/>
+      <c r="U150" s="72"/>
+      <c r="V150" s="72"/>
+      <c r="W150" s="72"/>
+      <c r="X150" s="72"/>
     </row>
     <row r="151" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="67" t="s">
@@ -5885,20 +5887,6 @@
       <c r="H151" s="28"/>
       <c r="I151" s="28"/>
       <c r="J151" s="28"/>
-      <c r="M151" s="85" t="s">
-        <v>187</v>
-      </c>
-      <c r="N151" s="85"/>
-      <c r="O151" s="85"/>
-      <c r="P151" s="85"/>
-      <c r="Q151" s="85"/>
-      <c r="R151" s="85"/>
-      <c r="S151" s="85"/>
-      <c r="T151" s="85"/>
-      <c r="U151" s="85"/>
-      <c r="V151" s="85"/>
-      <c r="W151" s="85"/>
-      <c r="X151" s="85"/>
     </row>
     <row r="152" spans="1:24" ht="8.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="28"/>
@@ -9796,39 +9784,7 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="M151:X151"/>
-    <mergeCell ref="B142:X142"/>
-    <mergeCell ref="D109:X109"/>
-    <mergeCell ref="F118:M118"/>
-    <mergeCell ref="F127:M127"/>
-    <mergeCell ref="A133:X133"/>
-    <mergeCell ref="B139:X139"/>
-    <mergeCell ref="M150:X150"/>
-    <mergeCell ref="M148:X148"/>
-    <mergeCell ref="B106:R106"/>
-    <mergeCell ref="S106:X106"/>
-    <mergeCell ref="B84:X84"/>
-    <mergeCell ref="B93:L93"/>
-    <mergeCell ref="A95:X95"/>
-    <mergeCell ref="B104:K105"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="N37:X37"/>
-    <mergeCell ref="F65:M65"/>
-    <mergeCell ref="F56:M56"/>
-    <mergeCell ref="B38:L38"/>
-    <mergeCell ref="N38:X38"/>
-    <mergeCell ref="N39:X39"/>
-    <mergeCell ref="B39:L39"/>
-    <mergeCell ref="B40:L40"/>
-    <mergeCell ref="N40:X40"/>
-    <mergeCell ref="B81:X81"/>
-    <mergeCell ref="B73:X73"/>
-    <mergeCell ref="A41:X41"/>
-    <mergeCell ref="B79:X79"/>
-    <mergeCell ref="F71:X72"/>
-    <mergeCell ref="D48:X48"/>
-    <mergeCell ref="B45:T45"/>
-    <mergeCell ref="L43:X43"/>
+    <mergeCell ref="B82:X82"/>
     <mergeCell ref="B35:L35"/>
     <mergeCell ref="A5:X5"/>
     <mergeCell ref="A6:X6"/>
@@ -9840,6 +9796,38 @@
     <mergeCell ref="N35:X35"/>
     <mergeCell ref="A15:X15"/>
     <mergeCell ref="B14:X14"/>
+    <mergeCell ref="B81:X81"/>
+    <mergeCell ref="B73:X73"/>
+    <mergeCell ref="A41:X41"/>
+    <mergeCell ref="B79:X79"/>
+    <mergeCell ref="F71:X72"/>
+    <mergeCell ref="D48:X48"/>
+    <mergeCell ref="B45:T45"/>
+    <mergeCell ref="L43:X43"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="N37:X37"/>
+    <mergeCell ref="F65:M65"/>
+    <mergeCell ref="F56:M56"/>
+    <mergeCell ref="B38:L38"/>
+    <mergeCell ref="N38:X38"/>
+    <mergeCell ref="N39:X39"/>
+    <mergeCell ref="B39:L39"/>
+    <mergeCell ref="B40:L40"/>
+    <mergeCell ref="N40:X40"/>
+    <mergeCell ref="B106:R106"/>
+    <mergeCell ref="S106:X106"/>
+    <mergeCell ref="B84:X84"/>
+    <mergeCell ref="B93:L93"/>
+    <mergeCell ref="A95:X95"/>
+    <mergeCell ref="B104:K105"/>
+    <mergeCell ref="M150:X150"/>
+    <mergeCell ref="B142:X142"/>
+    <mergeCell ref="D109:X109"/>
+    <mergeCell ref="F118:M118"/>
+    <mergeCell ref="F127:M127"/>
+    <mergeCell ref="A133:X133"/>
+    <mergeCell ref="B139:X139"/>
+    <mergeCell ref="M148:X148"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="7.874015748031496E-2" top="0.23622047244094491" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.15748031496062992"/>
